--- a/Code/Results/Cases/Case_3_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59126846422566</v>
+        <v>16.45386359834331</v>
       </c>
       <c r="C2">
-        <v>14.22873407697046</v>
+        <v>11.76077821269166</v>
       </c>
       <c r="D2">
-        <v>3.852876195521326</v>
+        <v>5.583166910672985</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.88887353622477</v>
+        <v>29.98433520944133</v>
       </c>
       <c r="G2">
-        <v>38.63370342700219</v>
+        <v>39.03714059998849</v>
       </c>
       <c r="H2">
-        <v>11.79300727782933</v>
+        <v>16.4875912714226</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.701674705353973</v>
+        <v>10.79867634843321</v>
       </c>
       <c r="M2">
-        <v>12.53517075765267</v>
+        <v>15.78930905851956</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.0942509092639</v>
+        <v>15.98064158386482</v>
       </c>
       <c r="C3">
-        <v>13.6487814461652</v>
+        <v>11.52026903021662</v>
       </c>
       <c r="D3">
-        <v>3.91608028197023</v>
+        <v>5.596882192471928</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>25.87709291933034</v>
+        <v>29.87984104395743</v>
       </c>
       <c r="G3">
-        <v>36.98750686437117</v>
+        <v>38.80074087855212</v>
       </c>
       <c r="H3">
-        <v>11.62164083931397</v>
+        <v>16.51427535156242</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.649700349911211</v>
+        <v>10.81562366560598</v>
       </c>
       <c r="M3">
-        <v>11.95900074993114</v>
+        <v>15.70976650373311</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.12401415159908</v>
+        <v>15.68650664293712</v>
       </c>
       <c r="C4">
-        <v>13.2803111373215</v>
+        <v>11.36838073751623</v>
       </c>
       <c r="D4">
-        <v>3.955312698806913</v>
+        <v>5.605684528307354</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.26865414628985</v>
+        <v>29.82567722347916</v>
       </c>
       <c r="G4">
-        <v>35.99285346206386</v>
+        <v>38.670446715563</v>
       </c>
       <c r="H4">
-        <v>11.52744670883627</v>
+        <v>16.53467756503964</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.621372088129553</v>
+        <v>10.82760962252298</v>
       </c>
       <c r="M4">
-        <v>11.5981481001659</v>
+        <v>15.6637777759238</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.71566520581108</v>
+        <v>15.56594060953899</v>
       </c>
       <c r="C5">
-        <v>13.12713731537271</v>
+        <v>11.30547259281961</v>
       </c>
       <c r="D5">
-        <v>3.971420517917065</v>
+        <v>5.609367827779205</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.02417648204528</v>
+        <v>29.80612979802328</v>
       </c>
       <c r="G5">
-        <v>35.59202648250976</v>
+        <v>38.62112671482807</v>
       </c>
       <c r="H5">
-        <v>11.49175577530705</v>
+        <v>16.54399843873929</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.610709925176947</v>
+        <v>10.83289129083944</v>
       </c>
       <c r="M5">
-        <v>11.449497344048</v>
+        <v>15.645768227073</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.64707214753214</v>
+        <v>15.54588414091189</v>
       </c>
       <c r="C6">
-        <v>13.10152366582995</v>
+        <v>11.294967029222</v>
       </c>
       <c r="D6">
-        <v>3.974102857072262</v>
+        <v>5.609985264880944</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.98379801999932</v>
+        <v>29.80303670562738</v>
       </c>
       <c r="G6">
-        <v>35.52575533407143</v>
+        <v>38.61316624216537</v>
       </c>
       <c r="H6">
-        <v>11.48598961901268</v>
+        <v>16.54560686030759</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.608992161604091</v>
+        <v>10.83379230049367</v>
       </c>
       <c r="M6">
-        <v>11.42472319382375</v>
+        <v>15.64282232124333</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.11855969649424</v>
+        <v>15.68488322997109</v>
       </c>
       <c r="C7">
-        <v>13.2782574690431</v>
+        <v>11.36753637108714</v>
       </c>
       <c r="D7">
-        <v>3.955529430048309</v>
+        <v>5.605733812179035</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.26534266225106</v>
+        <v>29.82540336550072</v>
       </c>
       <c r="G7">
-        <v>35.98742891431267</v>
+        <v>38.66976623310241</v>
       </c>
       <c r="H7">
-        <v>11.52695456881619</v>
+        <v>16.53479919811871</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.621224750067123</v>
+        <v>10.82767924444959</v>
       </c>
       <c r="M7">
-        <v>11.59614956371745</v>
+        <v>15.6635319138541</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.08561495048259</v>
+        <v>16.29155209169523</v>
       </c>
       <c r="C8">
-        <v>14.03138517382541</v>
+        <v>11.67875303041779</v>
       </c>
       <c r="D8">
-        <v>3.874589072743005</v>
+        <v>5.587817110680755</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.53749796078269</v>
+        <v>29.94623880173568</v>
       </c>
       <c r="G8">
-        <v>38.06300419142939</v>
+        <v>38.95257310314101</v>
       </c>
       <c r="H8">
-        <v>11.73158626413237</v>
+        <v>16.4959559385676</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.682998496841392</v>
+        <v>10.80419177535594</v>
       </c>
       <c r="M8">
-        <v>12.33807624493286</v>
+        <v>15.76130004134471</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.5439930579458</v>
+        <v>17.44489829843151</v>
       </c>
       <c r="C9">
-        <v>15.40696571254001</v>
+        <v>12.25366008906707</v>
       </c>
       <c r="D9">
-        <v>3.718597813932501</v>
+        <v>5.555686197037229</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.12416054671993</v>
+        <v>30.26184293155849</v>
       </c>
       <c r="G9">
-        <v>42.24434152181053</v>
+        <v>39.62288816858943</v>
       </c>
       <c r="H9">
-        <v>12.22361105117472</v>
+        <v>16.45181224026495</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.833432552050843</v>
+        <v>10.77067365482039</v>
       </c>
       <c r="M9">
-        <v>13.78374254279903</v>
+        <v>15.97496732476785</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.85063903577302</v>
+        <v>18.26035802224113</v>
       </c>
       <c r="C10">
-        <v>16.35306620676</v>
+        <v>12.65205892426139</v>
       </c>
       <c r="D10">
-        <v>3.604723968133238</v>
+        <v>5.533882817772722</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.07053129703349</v>
+        <v>30.54051895642674</v>
       </c>
       <c r="G10">
-        <v>45.36722244255454</v>
+        <v>40.18253480760983</v>
       </c>
       <c r="H10">
-        <v>12.64465861562026</v>
+        <v>16.43908430223103</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.962999027715154</v>
+        <v>10.75369487920277</v>
       </c>
       <c r="M10">
-        <v>15.04555449820394</v>
+        <v>16.14436539046845</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.85126649793529</v>
+        <v>18.62260862004869</v>
       </c>
       <c r="C11">
-        <v>16.76923307728751</v>
+        <v>12.82763684220212</v>
       </c>
       <c r="D11">
-        <v>3.552862492768965</v>
+        <v>5.524349589642501</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.96475817993831</v>
+        <v>30.67714005561361</v>
       </c>
       <c r="G11">
-        <v>46.79715845369958</v>
+        <v>40.45085584525594</v>
       </c>
       <c r="H11">
-        <v>12.85001995813558</v>
+        <v>16.43760326148141</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.02633943859039</v>
+        <v>10.74763073334037</v>
       </c>
       <c r="M11">
-        <v>15.59386545559793</v>
+        <v>16.22390433186788</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.22336803615406</v>
+        <v>18.75839999042044</v>
       </c>
       <c r="C12">
-        <v>16.92478269740827</v>
+        <v>12.89327575474932</v>
       </c>
       <c r="D12">
-        <v>3.533196609423638</v>
+        <v>5.52079456213892</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.30461605301676</v>
+        <v>30.73025933113162</v>
       </c>
       <c r="G12">
-        <v>47.339957590668</v>
+        <v>40.55435621923001</v>
       </c>
       <c r="H12">
-        <v>12.92984735170429</v>
+        <v>16.43766384788666</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.050980122952735</v>
+        <v>10.74557289170154</v>
       </c>
       <c r="M12">
-        <v>15.79790506280484</v>
+        <v>16.25436048578077</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.14352927393838</v>
+        <v>18.72921847299388</v>
       </c>
       <c r="C13">
-        <v>16.89137300771448</v>
+        <v>12.87917751802623</v>
       </c>
       <c r="D13">
-        <v>3.537433515708022</v>
+        <v>5.521557761065705</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.23136659870998</v>
+        <v>30.71875815019759</v>
       </c>
       <c r="G13">
-        <v>47.22299696181744</v>
+        <v>40.53198272729668</v>
       </c>
       <c r="H13">
-        <v>12.91256217821195</v>
+        <v>16.4376231373851</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.045643803662868</v>
+        <v>10.74600547916689</v>
       </c>
       <c r="M13">
-        <v>15.75411961271712</v>
+        <v>16.24778656678134</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.8820149716239</v>
+        <v>18.63380873326276</v>
       </c>
       <c r="C14">
-        <v>16.78207113337703</v>
+        <v>12.83305419585461</v>
       </c>
       <c r="D14">
-        <v>3.551245219833283</v>
+        <v>5.524056015378506</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.99269374471398</v>
+        <v>30.68148267402452</v>
       </c>
       <c r="G14">
-        <v>46.84178831825441</v>
+        <v>40.45933343168996</v>
       </c>
       <c r="H14">
-        <v>12.85654564972394</v>
+        <v>16.43759578290608</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.028353380562913</v>
+        <v>10.74745665413078</v>
       </c>
       <c r="M14">
-        <v>15.61072333166932</v>
+        <v>16.22640335072584</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.72094822848717</v>
+        <v>18.57518340576327</v>
       </c>
       <c r="C15">
-        <v>16.71485473489966</v>
+        <v>12.80469080881758</v>
       </c>
       <c r="D15">
-        <v>3.559701200454084</v>
+        <v>5.525593419109603</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.84666041618135</v>
+        <v>30.65882956394509</v>
       </c>
       <c r="G15">
-        <v>46.6084590741746</v>
+        <v>40.41507764855761</v>
       </c>
       <c r="H15">
-        <v>12.8225046501972</v>
+        <v>16.43766000141201</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.017848494326698</v>
+        <v>10.7483765981314</v>
       </c>
       <c r="M15">
-        <v>15.52242409738287</v>
+        <v>16.21334873119672</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.78428168780922</v>
+        <v>18.23649722583122</v>
       </c>
       <c r="C16">
-        <v>16.32558230159522</v>
+        <v>12.64046760358028</v>
       </c>
       <c r="D16">
-        <v>3.608110474200833</v>
+        <v>5.534513554458877</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.01226454881968</v>
+        <v>30.53178593940365</v>
       </c>
       <c r="G16">
-        <v>45.27395562097531</v>
+        <v>40.16526887995045</v>
       </c>
       <c r="H16">
-        <v>12.63152213290552</v>
+        <v>16.43926796277119</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.958949995249873</v>
+        <v>10.75412457088136</v>
       </c>
       <c r="M16">
-        <v>15.00921247685247</v>
+        <v>16.13921552026755</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19732715081755</v>
+        <v>18.02639549905459</v>
       </c>
       <c r="C17">
-        <v>16.08312985140724</v>
+        <v>12.53824741284589</v>
       </c>
       <c r="D17">
-        <v>3.637779806360531</v>
+        <v>5.540084151933777</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.50260404402781</v>
+        <v>30.456349428945</v>
       </c>
       <c r="G17">
-        <v>44.45761610564259</v>
+        <v>40.01548038584705</v>
       </c>
       <c r="H17">
-        <v>12.51795228182954</v>
+        <v>16.44135944024446</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.923960031277944</v>
+        <v>10.75807575265692</v>
       </c>
       <c r="M17">
-        <v>14.68786188917692</v>
+        <v>16.09435806863325</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.85513278957518</v>
+        <v>17.90473819793555</v>
       </c>
       <c r="C18">
-        <v>15.94233814894747</v>
+        <v>12.4789226606874</v>
       </c>
       <c r="D18">
-        <v>3.654840359705844</v>
+        <v>5.543324496037727</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.2102887607123</v>
+        <v>30.41388962792872</v>
       </c>
       <c r="G18">
-        <v>43.98895185270405</v>
+        <v>39.93062406189453</v>
       </c>
       <c r="H18">
-        <v>12.4539265703125</v>
+        <v>16.44296790193485</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.904247465059761</v>
+        <v>10.76050458707199</v>
       </c>
       <c r="M18">
-        <v>14.50060455236718</v>
+        <v>16.06879180998562</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7384772781989</v>
+        <v>17.86341187570444</v>
       </c>
       <c r="C19">
-        <v>15.89443868586929</v>
+        <v>12.45874634331208</v>
       </c>
       <c r="D19">
-        <v>3.660616553899559</v>
+        <v>5.544427864880551</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.11146003908323</v>
+        <v>30.39967401535877</v>
       </c>
       <c r="G19">
-        <v>43.83042260830551</v>
+        <v>39.9021185281079</v>
       </c>
       <c r="H19">
-        <v>12.43246910241919</v>
+        <v>16.44358208237148</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.8976433608009</v>
+        <v>10.76135378240243</v>
       </c>
       <c r="M19">
-        <v>14.43678302003726</v>
+        <v>16.06017639977632</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.26028358950886</v>
+        <v>18.04884626690338</v>
       </c>
       <c r="C20">
-        <v>16.10907800408069</v>
+        <v>12.54918408579343</v>
       </c>
       <c r="D20">
-        <v>3.634622048475126</v>
+        <v>5.539487400032714</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.55677302081375</v>
+        <v>30.46428382316183</v>
       </c>
       <c r="G20">
-        <v>44.54442705699605</v>
+        <v>40.03129186172427</v>
       </c>
       <c r="H20">
-        <v>12.52990726969656</v>
+        <v>16.44109481701355</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.927641899342859</v>
+        <v>10.75763897528674</v>
       </c>
       <c r="M20">
-        <v>14.72232048265764</v>
+        <v>16.09910908779401</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.95901145136053</v>
+        <v>18.66187147384897</v>
       </c>
       <c r="C21">
-        <v>16.81423112013687</v>
+        <v>12.84662503370009</v>
       </c>
       <c r="D21">
-        <v>3.547189273312986</v>
+        <v>5.523320727999361</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.06276423404817</v>
+        <v>30.69239410323788</v>
       </c>
       <c r="G21">
-        <v>46.9537225784382</v>
+        <v>40.4806215929125</v>
       </c>
       <c r="H21">
-        <v>12.8729425004192</v>
+        <v>16.43758694007387</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.033414032928333</v>
+        <v>10.74702393683345</v>
       </c>
       <c r="M21">
-        <v>15.65293898074276</v>
+        <v>16.23267514947725</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.0296059054624</v>
+        <v>19.05439290393107</v>
       </c>
       <c r="C22">
-        <v>17.26318918037503</v>
+        <v>13.03605888369268</v>
       </c>
       <c r="D22">
-        <v>3.489880017075259</v>
+        <v>5.513075270909876</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>33.05423567003767</v>
+        <v>30.84952612774135</v>
       </c>
       <c r="G22">
-        <v>48.53605663493973</v>
+        <v>40.78527717336103</v>
       </c>
       <c r="H22">
-        <v>13.10919056669655</v>
+        <v>16.43891700702115</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.106372031207386</v>
+        <v>10.74147656603601</v>
       </c>
       <c r="M22">
-        <v>16.2402580270385</v>
+        <v>16.32191994348467</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.46176978758948</v>
+        <v>18.84568102272631</v>
       </c>
       <c r="C23">
-        <v>17.02465607061642</v>
+        <v>12.93541939126701</v>
       </c>
       <c r="D23">
-        <v>3.520488619422178</v>
+        <v>5.518514277236916</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.52440315860302</v>
+        <v>30.76493690070899</v>
       </c>
       <c r="G23">
-        <v>47.69080971565859</v>
+        <v>40.62169926274913</v>
       </c>
       <c r="H23">
-        <v>12.98197166750445</v>
+        <v>16.43787516749601</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.067074704047764</v>
+        <v>10.74431015841693</v>
       </c>
       <c r="M23">
-        <v>15.92867075698462</v>
+        <v>16.27411647705866</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23183578132099</v>
+        <v>18.03869896507884</v>
       </c>
       <c r="C24">
-        <v>16.09735121277519</v>
+        <v>12.54424134822633</v>
       </c>
       <c r="D24">
-        <v>3.636049659275954</v>
+        <v>5.539757073986434</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.53228105724101</v>
+        <v>30.46069384761185</v>
       </c>
       <c r="G24">
-        <v>44.50517776604227</v>
+        <v>40.02413956542479</v>
       </c>
       <c r="H24">
-        <v>12.52449847839817</v>
+        <v>16.44121318851053</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.925976071237776</v>
+        <v>10.75783595252621</v>
       </c>
       <c r="M24">
-        <v>14.70674957379199</v>
+        <v>16.09696045625072</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.65022726642829</v>
+        <v>17.1378360094302</v>
       </c>
       <c r="C25">
-        <v>15.04603460142735</v>
+        <v>12.10218061465093</v>
       </c>
       <c r="D25">
-        <v>3.760598527777292</v>
+        <v>5.564059810498868</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>28.41575074817849</v>
+        <v>30.16814764309439</v>
       </c>
       <c r="G25">
-        <v>41.10332800306486</v>
+        <v>39.42948257932333</v>
       </c>
       <c r="H25">
-        <v>12.08034282012156</v>
+        <v>16.46030544962439</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.78947804925934</v>
+        <v>10.77839823266728</v>
       </c>
       <c r="M25">
-        <v>13.3612181226198</v>
+        <v>15.91491135200492</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_236/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_236/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.45386359834331</v>
+        <v>21.5912684642257</v>
       </c>
       <c r="C2">
-        <v>11.76077821269166</v>
+        <v>14.22873407697019</v>
       </c>
       <c r="D2">
-        <v>5.583166910672985</v>
+        <v>3.852876195521462</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.98433520944133</v>
+        <v>26.88887353622462</v>
       </c>
       <c r="G2">
-        <v>39.03714059998849</v>
+        <v>38.63370342700208</v>
       </c>
       <c r="H2">
-        <v>16.4875912714226</v>
+        <v>11.79300727782912</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.79867634843321</v>
+        <v>6.701674705353948</v>
       </c>
       <c r="M2">
-        <v>15.78930905851956</v>
+        <v>12.53517075765262</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.98064158386482</v>
+        <v>20.09425090926394</v>
       </c>
       <c r="C3">
-        <v>11.52026903021662</v>
+        <v>13.64878144616533</v>
       </c>
       <c r="D3">
-        <v>5.596882192471928</v>
+        <v>3.916080281970165</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.87984104395743</v>
+        <v>25.8770929193302</v>
       </c>
       <c r="G3">
-        <v>38.80074087855212</v>
+        <v>36.98750686437102</v>
       </c>
       <c r="H3">
-        <v>16.51427535156242</v>
+        <v>11.62164083931383</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.81562366560598</v>
+        <v>6.649700349911218</v>
       </c>
       <c r="M3">
-        <v>15.70976650373311</v>
+        <v>11.95900074993114</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.68650664293712</v>
+        <v>19.12401415159911</v>
       </c>
       <c r="C4">
-        <v>11.36838073751623</v>
+        <v>13.28031113732152</v>
       </c>
       <c r="D4">
-        <v>5.605684528307354</v>
+        <v>3.955312698806843</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.82567722347916</v>
+        <v>25.26865414628982</v>
       </c>
       <c r="G4">
-        <v>38.670446715563</v>
+        <v>35.99285346206374</v>
       </c>
       <c r="H4">
-        <v>16.53467756503964</v>
+        <v>11.52744670883627</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.82760962252298</v>
+        <v>6.62137208812958</v>
       </c>
       <c r="M4">
-        <v>15.6637777759238</v>
+        <v>11.59814810016589</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.56594060953899</v>
+        <v>18.71566520581107</v>
       </c>
       <c r="C5">
-        <v>11.30547259281961</v>
+        <v>13.12713731537269</v>
       </c>
       <c r="D5">
-        <v>5.609367827779205</v>
+        <v>3.971420517917198</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.80612979802328</v>
+        <v>25.02417648204531</v>
       </c>
       <c r="G5">
-        <v>38.62112671482807</v>
+        <v>35.59202648250987</v>
       </c>
       <c r="H5">
-        <v>16.54399843873929</v>
+        <v>11.49175577530706</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.83289129083944</v>
+        <v>6.610709925176918</v>
       </c>
       <c r="M5">
-        <v>15.645768227073</v>
+        <v>11.449497344048</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.54588414091189</v>
+        <v>18.64707214753208</v>
       </c>
       <c r="C6">
-        <v>11.294967029222</v>
+        <v>13.10152366582991</v>
       </c>
       <c r="D6">
-        <v>5.609985264880944</v>
+        <v>3.974102857072527</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.80303670562738</v>
+        <v>24.98379801999945</v>
       </c>
       <c r="G6">
-        <v>38.61316624216537</v>
+        <v>35.52575533407171</v>
       </c>
       <c r="H6">
-        <v>16.54560686030759</v>
+        <v>11.48598961901274</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.83379230049367</v>
+        <v>6.608992161604149</v>
       </c>
       <c r="M6">
-        <v>15.64282232124333</v>
+        <v>11.42472319382381</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.68488322997109</v>
+        <v>19.11855969649422</v>
       </c>
       <c r="C7">
-        <v>11.36753637108714</v>
+        <v>13.27825746904287</v>
       </c>
       <c r="D7">
-        <v>5.605733812179035</v>
+        <v>3.955529430048442</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.82540336550072</v>
+        <v>25.26534266225107</v>
       </c>
       <c r="G7">
-        <v>38.66976623310241</v>
+        <v>35.98742891431277</v>
       </c>
       <c r="H7">
-        <v>16.53479919811871</v>
+        <v>11.52695456881619</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.82767924444959</v>
+        <v>6.621224750067153</v>
       </c>
       <c r="M7">
-        <v>15.6635319138541</v>
+        <v>11.59614956371747</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.29155209169523</v>
+        <v>21.08561495048262</v>
       </c>
       <c r="C8">
-        <v>11.67875303041779</v>
+        <v>14.03138517382551</v>
       </c>
       <c r="D8">
-        <v>5.587817110680755</v>
+        <v>3.874589072742869</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.94623880173568</v>
+        <v>26.53749796078258</v>
       </c>
       <c r="G8">
-        <v>38.95257310314101</v>
+        <v>38.06300419142921</v>
       </c>
       <c r="H8">
-        <v>16.4959559385676</v>
+        <v>11.7315862641323</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.80419177535594</v>
+        <v>6.682998496841329</v>
       </c>
       <c r="M8">
-        <v>15.76130004134471</v>
+        <v>12.33807624493282</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.44489829843151</v>
+        <v>24.54399305794577</v>
       </c>
       <c r="C9">
-        <v>12.25366008906707</v>
+        <v>15.40696571253991</v>
       </c>
       <c r="D9">
-        <v>5.555686197037229</v>
+        <v>3.718597813932772</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.26184293155849</v>
+        <v>29.12416054671979</v>
       </c>
       <c r="G9">
-        <v>39.62288816858943</v>
+        <v>42.24434152181037</v>
       </c>
       <c r="H9">
-        <v>16.45181224026495</v>
+        <v>12.22361105117469</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.77067365482039</v>
+        <v>6.833432552050835</v>
       </c>
       <c r="M9">
-        <v>15.97496732476785</v>
+        <v>13.78374254279904</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.26035802224113</v>
+        <v>26.85063903577301</v>
       </c>
       <c r="C10">
-        <v>12.65205892426139</v>
+        <v>16.35306620675979</v>
       </c>
       <c r="D10">
-        <v>5.533882817772722</v>
+        <v>3.604723968133111</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.54051895642674</v>
+        <v>31.07053129703331</v>
       </c>
       <c r="G10">
-        <v>40.18253480760983</v>
+        <v>45.3672224425542</v>
       </c>
       <c r="H10">
-        <v>16.43908430223103</v>
+        <v>12.64465861562024</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.75369487920277</v>
+        <v>6.962999027715205</v>
       </c>
       <c r="M10">
-        <v>16.14436539046845</v>
+        <v>15.04555449820391</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.62260862004869</v>
+        <v>27.8512664979353</v>
       </c>
       <c r="C11">
-        <v>12.82763684220212</v>
+        <v>16.76923307728759</v>
       </c>
       <c r="D11">
-        <v>5.524349589642501</v>
+        <v>3.552862492768767</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.67714005561361</v>
+        <v>31.96475817993832</v>
       </c>
       <c r="G11">
-        <v>40.45085584525594</v>
+        <v>46.7971584536996</v>
       </c>
       <c r="H11">
-        <v>16.43760326148141</v>
+        <v>12.85001995813556</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.74763073334037</v>
+        <v>7.02633943859039</v>
       </c>
       <c r="M11">
-        <v>16.22390433186788</v>
+        <v>15.59386545559795</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.75839999042044</v>
+        <v>28.22336803615406</v>
       </c>
       <c r="C12">
-        <v>12.89327575474932</v>
+        <v>16.92478269740818</v>
       </c>
       <c r="D12">
-        <v>5.52079456213892</v>
+        <v>3.533196609423832</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.73025933113162</v>
+        <v>32.30461605301682</v>
       </c>
       <c r="G12">
-        <v>40.55435621923001</v>
+        <v>47.33995759066812</v>
       </c>
       <c r="H12">
-        <v>16.43766384788666</v>
+        <v>12.92984735170428</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.74557289170154</v>
+        <v>7.050980122952735</v>
       </c>
       <c r="M12">
-        <v>16.25436048578077</v>
+        <v>15.79790506280483</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.72921847299388</v>
+        <v>28.14352927393855</v>
       </c>
       <c r="C13">
-        <v>12.87917751802623</v>
+        <v>16.89137300771428</v>
       </c>
       <c r="D13">
-        <v>5.521557761065705</v>
+        <v>3.537433515707956</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.71875815019759</v>
+        <v>32.23136659870997</v>
       </c>
       <c r="G13">
-        <v>40.53198272729668</v>
+        <v>47.22299696181745</v>
       </c>
       <c r="H13">
-        <v>16.4376231373851</v>
+        <v>12.91256217821186</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.74600547916689</v>
+        <v>7.045643803662848</v>
       </c>
       <c r="M13">
-        <v>16.24778656678134</v>
+        <v>15.7541196127172</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.63380873326276</v>
+        <v>27.8820149716239</v>
       </c>
       <c r="C14">
-        <v>12.83305419585461</v>
+        <v>16.78207113337728</v>
       </c>
       <c r="D14">
-        <v>5.524056015378506</v>
+        <v>3.551245219833213</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.68148267402452</v>
+        <v>31.99269374471399</v>
       </c>
       <c r="G14">
-        <v>40.45933343168996</v>
+        <v>46.84178831825452</v>
       </c>
       <c r="H14">
-        <v>16.43759578290608</v>
+        <v>12.85654564972398</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.74745665413078</v>
+        <v>7.028353380562893</v>
       </c>
       <c r="M14">
-        <v>16.22640335072584</v>
+        <v>15.61072333166931</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.57518340576327</v>
+        <v>27.72094822848715</v>
       </c>
       <c r="C15">
-        <v>12.80469080881758</v>
+        <v>16.71485473489987</v>
       </c>
       <c r="D15">
-        <v>5.525593419109603</v>
+        <v>3.559701200453965</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.65882956394509</v>
+        <v>31.84666041618127</v>
       </c>
       <c r="G15">
-        <v>40.41507764855761</v>
+        <v>46.60845907417441</v>
       </c>
       <c r="H15">
-        <v>16.43766000141201</v>
+        <v>12.8225046501972</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.7483765981314</v>
+        <v>7.017848494326634</v>
       </c>
       <c r="M15">
-        <v>16.21334873119672</v>
+        <v>15.5224240973829</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.23649722583122</v>
+        <v>26.78428168780925</v>
       </c>
       <c r="C16">
-        <v>12.64046760358028</v>
+        <v>16.32558230159531</v>
       </c>
       <c r="D16">
-        <v>5.534513554458877</v>
+        <v>3.608110474200831</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.53178593940365</v>
+        <v>31.01226454881973</v>
       </c>
       <c r="G16">
-        <v>40.16526887995045</v>
+        <v>45.27395562097546</v>
       </c>
       <c r="H16">
-        <v>16.43926796277119</v>
+        <v>12.63152213290549</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.75412457088136</v>
+        <v>6.958949995249855</v>
       </c>
       <c r="M16">
-        <v>16.13921552026755</v>
+        <v>15.0092124768525</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.02639549905459</v>
+        <v>26.19732715081755</v>
       </c>
       <c r="C17">
-        <v>12.53824741284589</v>
+        <v>16.08312985140732</v>
       </c>
       <c r="D17">
-        <v>5.540084151933777</v>
+        <v>3.637779806360596</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.456349428945</v>
+        <v>30.50260404402785</v>
       </c>
       <c r="G17">
-        <v>40.01548038584705</v>
+        <v>44.45761610564266</v>
       </c>
       <c r="H17">
-        <v>16.44135944024446</v>
+        <v>12.51795228182961</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.75807575265692</v>
+        <v>6.923960031277899</v>
       </c>
       <c r="M17">
-        <v>16.09435806863325</v>
+        <v>14.68786188917692</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.90473819793555</v>
+        <v>25.85513278957517</v>
       </c>
       <c r="C18">
-        <v>12.4789226606874</v>
+        <v>15.94233814894766</v>
       </c>
       <c r="D18">
-        <v>5.543324496037727</v>
+        <v>3.654840359706025</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.41388962792872</v>
+        <v>30.21028876071233</v>
       </c>
       <c r="G18">
-        <v>39.93062406189453</v>
+        <v>43.98895185270423</v>
       </c>
       <c r="H18">
-        <v>16.44296790193485</v>
+        <v>12.4539265703125</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.76050458707199</v>
+        <v>6.904247465059746</v>
       </c>
       <c r="M18">
-        <v>16.06879180998562</v>
+        <v>14.50060455236722</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.86341187570444</v>
+        <v>25.73847727819889</v>
       </c>
       <c r="C19">
-        <v>12.45874634331208</v>
+        <v>15.89443868586908</v>
       </c>
       <c r="D19">
-        <v>5.544427864880551</v>
+        <v>3.660616553899423</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.39967401535877</v>
+        <v>30.11146003908334</v>
       </c>
       <c r="G19">
-        <v>39.9021185281079</v>
+        <v>43.83042260830564</v>
       </c>
       <c r="H19">
-        <v>16.44358208237148</v>
+        <v>12.43246910241923</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.76135378240243</v>
+        <v>6.897643360800969</v>
       </c>
       <c r="M19">
-        <v>16.06017639977632</v>
+        <v>14.4367830200372</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.04884626690338</v>
+        <v>26.26028358950883</v>
       </c>
       <c r="C20">
-        <v>12.54918408579343</v>
+        <v>16.1090780040806</v>
       </c>
       <c r="D20">
-        <v>5.539487400032714</v>
+        <v>3.63462204847532</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.46428382316183</v>
+        <v>30.5567730208137</v>
       </c>
       <c r="G20">
-        <v>40.03129186172427</v>
+        <v>44.54442705699597</v>
       </c>
       <c r="H20">
-        <v>16.44109481701355</v>
+        <v>12.52990726969655</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.75763897528674</v>
+        <v>6.927641899342952</v>
       </c>
       <c r="M20">
-        <v>16.09910908779401</v>
+        <v>14.7223204826576</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.66187147384897</v>
+        <v>27.95901145136052</v>
       </c>
       <c r="C21">
-        <v>12.84662503370009</v>
+        <v>16.81423112013697</v>
       </c>
       <c r="D21">
-        <v>5.523320727999361</v>
+        <v>3.547189273313057</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.69239410323788</v>
+        <v>32.06276423404822</v>
       </c>
       <c r="G21">
-        <v>40.4806215929125</v>
+        <v>46.95372257843825</v>
       </c>
       <c r="H21">
-        <v>16.43758694007387</v>
+        <v>12.87294250041918</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.74702393683345</v>
+        <v>7.033414032928309</v>
       </c>
       <c r="M21">
-        <v>16.23267514947725</v>
+        <v>15.65293898074277</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.05439290393107</v>
+        <v>29.02960590546234</v>
       </c>
       <c r="C22">
-        <v>13.03605888369268</v>
+        <v>17.26318918037483</v>
       </c>
       <c r="D22">
-        <v>5.513075270909876</v>
+        <v>3.489880017075316</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.84952612774135</v>
+        <v>33.0542356700377</v>
       </c>
       <c r="G22">
-        <v>40.78527717336103</v>
+        <v>48.5360566349398</v>
       </c>
       <c r="H22">
-        <v>16.43891700702115</v>
+        <v>13.10919056669658</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.74147656603601</v>
+        <v>7.106372031207339</v>
       </c>
       <c r="M22">
-        <v>16.32191994348467</v>
+        <v>16.2402580270385</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.84568102272631</v>
+        <v>28.46176978758944</v>
       </c>
       <c r="C23">
-        <v>12.93541939126701</v>
+        <v>17.02465607061645</v>
       </c>
       <c r="D23">
-        <v>5.518514277236916</v>
+        <v>3.520488619422241</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.76493690070899</v>
+        <v>32.52440315860319</v>
       </c>
       <c r="G23">
-        <v>40.62169926274913</v>
+        <v>47.69080971565881</v>
       </c>
       <c r="H23">
-        <v>16.43787516749601</v>
+        <v>12.9819716675045</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.74431015841693</v>
+        <v>7.067074704047789</v>
       </c>
       <c r="M23">
-        <v>16.27411647705866</v>
+        <v>15.92867075698458</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.03869896507884</v>
+        <v>26.23183578132095</v>
       </c>
       <c r="C24">
-        <v>12.54424134822633</v>
+        <v>16.09735121277512</v>
       </c>
       <c r="D24">
-        <v>5.539757073986434</v>
+        <v>3.636049659276284</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.46069384761185</v>
+        <v>30.53228105724105</v>
       </c>
       <c r="G24">
-        <v>40.02413956542479</v>
+        <v>44.50517776604237</v>
       </c>
       <c r="H24">
-        <v>16.44121318851053</v>
+        <v>12.52449847839826</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.75783595252621</v>
+        <v>6.925976071237761</v>
       </c>
       <c r="M24">
-        <v>16.09696045625072</v>
+        <v>14.70674957379197</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.1378360094302</v>
+        <v>23.65022726642833</v>
       </c>
       <c r="C25">
-        <v>12.10218061465093</v>
+        <v>15.04603460142727</v>
       </c>
       <c r="D25">
-        <v>5.564059810498868</v>
+        <v>3.760598527777356</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.16814764309439</v>
+        <v>28.41575074817843</v>
       </c>
       <c r="G25">
-        <v>39.42948257932333</v>
+        <v>41.10332800306481</v>
       </c>
       <c r="H25">
-        <v>16.46030544962439</v>
+        <v>12.08034282012155</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.77839823266728</v>
+        <v>6.789478049259297</v>
       </c>
       <c r="M25">
-        <v>15.91491135200492</v>
+        <v>13.36121812261976</v>
       </c>
       <c r="N25">
         <v>0</v>
